--- a/gitTest.xlsx
+++ b/gitTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://innerspace-my.sharepoint.com/personal/frank_blau_innerspace_eu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FrankBlau\riskProfileContent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9C6942B9-05D6-4377-9609-13E35411E352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EE687D9-A29E-4020-8E8D-3803D5DF438F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF57268-B3EF-4772-AABE-1239F9F8D851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21960" yWindow="-1932" windowWidth="17280" windowHeight="9960" xr2:uid="{3842DD62-CB85-455A-BDFA-6B489D870E93}"/>
+    <workbookView xWindow="-21612" yWindow="-1584" windowWidth="17280" windowHeight="9960" xr2:uid="{3842DD62-CB85-455A-BDFA-6B489D870E93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>as</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>rty</t>
   </si>
 </sst>
 </file>
@@ -416,32 +419,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FAD2BD-1B8F-45A4-9CD8-AEFDED069474}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
